--- a/medicine/Enfance/Le_Trésor_des_O'Brien/Le_Trésor_des_O'Brien.xlsx
+++ b/medicine/Enfance/Le_Trésor_des_O'Brien/Le_Trésor_des_O'Brien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Tr%C3%A9sor_des_O%27Brien</t>
+          <t>Le_Trésor_des_O'Brien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Trésor des O'Brien est un roman de Michael Morpurgo paru en 1983.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Tr%C3%A9sor_des_O%27Brien</t>
+          <t>Le_Trésor_des_O'Brien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'année 1847 en Irlande. Cette année-là, un immense désastre anéantit les récoltes, imposant au peuple la famine. Seuls survivants du clan des O'Brien, Sean et Annie n'ont qu'un seul espoir de salut: ils doivent quitter leurs terres et partir retrouver leur père en Amérique. Ils s'emportent à bord d'une jonque d'émigrants. Débute alors la plus incroyable des épopées.
  Portail de la littérature britannique   Portail de la littérature d’enfance et de jeunesse                    </t>
